--- a/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,1079 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F2_P20_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P20_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F3_P28_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F3_P28_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F1_P1_Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P1_Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F2_P12_Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P12_Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bartunek et al._2000_OrgSci_Dynamics and Dilemmas of Women leading Women.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1_P11_Bartunek et al._2000_OrgSci_Dynamics and Dilemmas of Women leading Women.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P11_Bartunek et al._2000_OrgSci_Dynamics and Dilemmas of Women leading Women.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F1_P6_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P6_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>organizational chart</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F2_P13_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P13_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F3_P15_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F3_P15_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Glynn_2000_OrgSci_When Cymbals become Symbols.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F1_P9_Glynn_2000_OrgSci_When Cymbals become Symbols.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P9_Glynn_2000_OrgSci_When Cymbals become Symbols.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>James_2000_OrgSci_Race-Related Differences_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F1_P6_James_2000_OrgSci_Race-Related Differences_Quant.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P6_James_2000_OrgSci_Race-Related Differences_Quant.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>James_2000_OrgSci_Race-Related Differences_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F2_P10_James_2000_OrgSci_Race-Related Differences_Quant.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P10_James_2000_OrgSci_Race-Related Differences_Quant.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P3_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P3_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F3_P17_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F3_P17_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F1_P5_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P5_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F4_P14_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F4_P14_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F4_P15_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F4_P15_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F2_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F6_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F6_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F6_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F6_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F2_P7_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P7_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F3_P12_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F3_P12_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F5_P13_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F5_P13_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F6_P14_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F6_P14_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F7_P15_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F7_P15_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F8_P16_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F8_P16_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F9_P17_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F9_P17_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F2_P26_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>27</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P26_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F2_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F2_P6_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F2_P6_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1553,6 +1553,265 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F1_P15_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P15_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F1_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F1_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F1_P7_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P7_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F1_P21_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P21_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F1_P6_Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P6_Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>F1_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>final_figures/2000/F1_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -621,7 +621,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>line graph</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I34" t="b">

--- a/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2000_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,9 +542,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,9 +576,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,9 +610,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>organizational chart</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -880,11 +845,8 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -920,9 +882,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -991,11 +947,8 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1028,11 +981,8 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1065,11 +1015,8 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1102,11 +1049,8 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1142,9 +1086,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,9 +1154,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,9 +1188,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1287,11 +1219,8 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1327,9 +1256,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1364,9 +1290,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1401,9 +1324,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1438,9 +1358,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1475,9 +1392,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,9 +1426,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1549,9 +1460,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1586,9 +1494,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,9 +1528,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1660,9 +1562,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1697,9 +1596,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1734,9 +1630,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1771,9 +1664,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1807,9 +1697,6 @@
         <is>
           <t>conceptual diagram</t>
         </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
